--- a/3. Excel HUB/Formatação/3;1 - Regras de Realce.xlsx
+++ b/3. Excel HUB/Formatação/3;1 - Regras de Realce.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PlenilunoS\Dev Hub\GitHub\my-learning-code-hub\3. Excel Impressionador\Formatação Condicional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PlenilunoS\Dev Hub\GitHub\my-learning-code-hub\3. Excel HUB\Formatação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E981BB7-23E6-4EAA-A3E5-9CFA332ECF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8531716B-4B18-45AA-AC35-C9D245F7FB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="1" xr2:uid="{60DE4CDD-BFE8-488F-B25C-A1E3AA20DCD1}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>Produto</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Notas</t>
+  </si>
+  <si>
+    <t>Abaixo de 500.000</t>
+  </si>
+  <si>
+    <t>Entre 500.000 e 1.000.000</t>
+  </si>
+  <si>
+    <t>Acima de 1.000.000</t>
   </si>
 </sst>
 </file>
@@ -655,7 +664,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,7 +706,7 @@
         <v>5000000</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
@@ -717,7 +726,7 @@
         <v>1000000</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>22</v>
@@ -737,7 +746,7 @@
         <v>3784900</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>23</v>
